--- a/jyx2/Assets/Mods/Hunter6SecMod/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/Hunter6SecMod/Configs/人物.xlsx
@@ -384,109 +384,109 @@
     <t>61,700</t>
   </si>
   <si>
+    <t>佟雯</t>
+  </si>
+  <si>
+    <t>曼陀谷掌门</t>
+  </si>
+  <si>
+    <t>70,500|71,400</t>
+  </si>
+  <si>
+    <t>75,1|76,1</t>
+  </si>
+  <si>
+    <t>曼陀谷弟子</t>
+  </si>
+  <si>
+    <t>童四二</t>
+  </si>
+  <si>
+    <t>鸽子楼徐谦收留的弟子</t>
+  </si>
+  <si>
+    <t>牛妞妞</t>
+  </si>
+  <si>
+    <t>牛头岭庄主女儿</t>
+  </si>
+  <si>
+    <t>90,300</t>
+  </si>
+  <si>
+    <t>91,1</t>
+  </si>
+  <si>
+    <t>牛不三</t>
+  </si>
+  <si>
+    <t>牛头岭庄主牛不扭的女儿</t>
+  </si>
+  <si>
+    <t>90,800</t>
+  </si>
+  <si>
+    <t>张老板</t>
+  </si>
+  <si>
+    <t>水果摊老板</t>
+  </si>
+  <si>
+    <t>30,800</t>
+  </si>
+  <si>
+    <t>隋青竹</t>
+  </si>
+  <si>
+    <t>隋仙堂神医</t>
+  </si>
+  <si>
+    <t>0,0|120,800</t>
+  </si>
+  <si>
+    <t>野狼</t>
+  </si>
+  <si>
+    <t>140,600</t>
+  </si>
+  <si>
+    <t>140,700</t>
+  </si>
+  <si>
+    <t>140,800</t>
+  </si>
+  <si>
+    <t>黑熊</t>
+  </si>
+  <si>
+    <t>160,500</t>
+  </si>
+  <si>
+    <t>160,600</t>
+  </si>
+  <si>
+    <t>160,800</t>
+  </si>
+  <si>
+    <t>160,700</t>
+  </si>
+  <si>
+    <t>巨型黑熊</t>
+  </si>
+  <si>
+    <t>毒蛇</t>
+  </si>
+  <si>
+    <t>180,600</t>
+  </si>
+  <si>
+    <t>路人乙</t>
+  </si>
+  <si>
+    <t>42,700</t>
+  </si>
+  <si>
     <t>蓝隼士兵</t>
-  </si>
-  <si>
-    <t>佟雯</t>
-  </si>
-  <si>
-    <t>曼陀谷掌门</t>
-  </si>
-  <si>
-    <t>70,500|71,400</t>
-  </si>
-  <si>
-    <t>75,1|76,1</t>
-  </si>
-  <si>
-    <t>曼陀谷弟子</t>
-  </si>
-  <si>
-    <t>童四二</t>
-  </si>
-  <si>
-    <t>鸽子楼徐谦收留的弟子</t>
-  </si>
-  <si>
-    <t>牛妞妞</t>
-  </si>
-  <si>
-    <t>牛头岭庄主女儿</t>
-  </si>
-  <si>
-    <t>90,300</t>
-  </si>
-  <si>
-    <t>91,1</t>
-  </si>
-  <si>
-    <t>牛不三</t>
-  </si>
-  <si>
-    <t>牛头岭庄主牛不扭的女儿</t>
-  </si>
-  <si>
-    <t>90,800</t>
-  </si>
-  <si>
-    <t>张老板</t>
-  </si>
-  <si>
-    <t>水果摊老板</t>
-  </si>
-  <si>
-    <t>30,800</t>
-  </si>
-  <si>
-    <t>隋青竹</t>
-  </si>
-  <si>
-    <t>隋仙堂神医</t>
-  </si>
-  <si>
-    <t>0,0|120,800</t>
-  </si>
-  <si>
-    <t>野狼</t>
-  </si>
-  <si>
-    <t>140,600</t>
-  </si>
-  <si>
-    <t>140,700</t>
-  </si>
-  <si>
-    <t>140,800</t>
-  </si>
-  <si>
-    <t>黑熊</t>
-  </si>
-  <si>
-    <t>160,500</t>
-  </si>
-  <si>
-    <t>160,600</t>
-  </si>
-  <si>
-    <t>160,800</t>
-  </si>
-  <si>
-    <t>160,700</t>
-  </si>
-  <si>
-    <t>巨型黑熊</t>
-  </si>
-  <si>
-    <t>毒蛇</t>
-  </si>
-  <si>
-    <t>180,600</t>
-  </si>
-  <si>
-    <t>路人乙</t>
-  </si>
-  <si>
-    <t>42,700</t>
   </si>
 </sst>
 </file>
@@ -1554,13 +1554,14 @@
   <sheetPr/>
   <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="12.4916666666667" customWidth="1"/>
     <col min="6" max="39" width="9" customWidth="1"/>
     <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
     <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
@@ -4428,36 +4429,36 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:42">
       <c r="A25" s="3">
-        <v>610</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3">
-        <v>610</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>6350</v>
+        <v>2250</v>
       </c>
       <c r="I25" s="3">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="J25" s="3">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -4478,59 +4479,59 @@
         <v>-1</v>
       </c>
       <c r="Q25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="S25" s="3">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="T25" s="3">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U25" s="3">
+        <v>55</v>
+      </c>
+      <c r="V25" s="3">
+        <v>51</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>75</v>
+      </c>
+      <c r="Y25" s="3">
         <v>60</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Z25" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>50</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH25" s="3">
         <v>65</v>
       </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>50</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>50</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>0</v>
-      </c>
       <c r="AI25" s="3">
         <v>0</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AL25" s="3">
         <v>-1</v>
@@ -4547,42 +4548,45 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AO25" s="7" t="s">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>714</v>
       </c>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="3">
-        <v>611</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
-        <v>610</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
-        <v>6350</v>
+        <v>2250</v>
       </c>
       <c r="I26" s="3">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="J26" s="3">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -4603,59 +4607,59 @@
         <v>-1</v>
       </c>
       <c r="Q26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="S26" s="3">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="T26" s="3">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U26" s="3">
+        <v>55</v>
+      </c>
+      <c r="V26" s="3">
+        <v>51</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>60</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Z26" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH26" s="3">
         <v>65</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>50</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>50</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>0</v>
-      </c>
       <c r="AI26" s="3">
         <v>0</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AL26" s="3">
         <v>-1</v>
@@ -4672,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AO26" s="7" t="s">
         <v>78</v>
@@ -4680,34 +4684,34 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="3">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3">
-        <v>610</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
-        <v>6350</v>
+        <v>2250</v>
       </c>
       <c r="I27" s="3">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="J27" s="3">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -4728,59 +4732,59 @@
         <v>-1</v>
       </c>
       <c r="Q27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="S27" s="3">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="T27" s="3">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U27" s="3">
+        <v>55</v>
+      </c>
+      <c r="V27" s="3">
+        <v>51</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>60</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Z27" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH27" s="3">
         <v>65</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>50</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>50</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>0</v>
-      </c>
       <c r="AI27" s="3">
         <v>0</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AL27" s="3">
         <v>-1</v>
@@ -4797,42 +4801,42 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AO27" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:42">
       <c r="A28" s="3">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3">
-        <v>6350</v>
+        <v>50</v>
       </c>
       <c r="I28" s="3">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="J28" s="3">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -4853,193 +4857,196 @@
         <v>-1</v>
       </c>
       <c r="Q28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="3">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="S28" s="3">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="T28" s="3">
+        <v>21</v>
+      </c>
+      <c r="U28" s="3">
+        <v>43</v>
+      </c>
+      <c r="V28" s="3">
+        <v>18</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>36</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>21</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>90</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="U28" s="3">
-        <v>60</v>
-      </c>
-      <c r="V28" s="3">
-        <v>65</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>50</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>50</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>40</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="AO28" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="AP28" s="3">
+        <v>813</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:42">
       <c r="A29" s="3">
-        <v>614</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3">
-        <v>610</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>50</v>
+      </c>
+      <c r="I29" s="3">
+        <v>38</v>
+      </c>
+      <c r="J29" s="3">
+        <v>38</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>100</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>21</v>
+      </c>
+      <c r="S29" s="3">
+        <v>21</v>
+      </c>
+      <c r="T29" s="3">
         <v>14</v>
       </c>
-      <c r="H29" s="3">
-        <v>6350</v>
-      </c>
-      <c r="I29" s="3">
-        <v>230</v>
-      </c>
-      <c r="J29" s="3">
-        <v>230</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>90</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>300</v>
-      </c>
-      <c r="S29" s="3">
-        <v>300</v>
-      </c>
-      <c r="T29" s="3">
-        <v>77</v>
-      </c>
       <c r="U29" s="3">
+        <v>30</v>
+      </c>
+      <c r="V29" s="3">
+        <v>22</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>26</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
         <v>60</v>
       </c>
-      <c r="V29" s="3">
-        <v>65</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>50</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>50</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>40</v>
-      </c>
       <c r="AL29" s="3">
         <v>-1</v>
       </c>
@@ -5047,42 +5054,45 @@
         <v>0</v>
       </c>
       <c r="AN29" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AO29" s="7" t="s">
-        <v>78</v>
+        <v>127</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="3">
-        <v>615</v>
+        <v>91</v>
       </c>
       <c r="B30" s="3">
-        <v>610</v>
+        <v>91</v>
       </c>
       <c r="C30" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H30" s="3">
-        <v>6350</v>
+        <v>9250</v>
       </c>
       <c r="I30" s="3">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="J30" s="3">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -5106,19 +5116,19 @@
         <v>1</v>
       </c>
       <c r="R30" s="3">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="S30" s="3">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="T30" s="3">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="U30" s="3">
         <v>60</v>
       </c>
       <c r="V30" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="W30" s="3">
         <v>0</v>
@@ -5133,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="AA30" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="AB30" s="3">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AC30" s="3">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="AD30" s="3">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AE30" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AF30" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG30" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AH30" s="3">
         <v>0</v>
@@ -5163,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL30" s="3">
         <v>-1</v>
@@ -5172,42 +5182,42 @@
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AO30" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:42">
       <c r="A31" s="3">
-        <v>616</v>
+        <v>111</v>
       </c>
       <c r="B31" s="3">
-        <v>610</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H31" s="3">
-        <v>6350</v>
+        <v>750</v>
       </c>
       <c r="I31" s="3">
-        <v>330</v>
+        <v>482</v>
       </c>
       <c r="J31" s="3">
-        <v>330</v>
+        <v>482</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -5231,20 +5241,20 @@
         <v>1</v>
       </c>
       <c r="R31" s="3">
-        <v>300</v>
+        <v>486</v>
       </c>
       <c r="S31" s="3">
-        <v>300</v>
+        <v>486</v>
       </c>
       <c r="T31" s="3">
+        <v>62</v>
+      </c>
+      <c r="U31" s="3">
+        <v>48</v>
+      </c>
+      <c r="V31" s="3">
         <v>77</v>
       </c>
-      <c r="U31" s="3">
-        <v>60</v>
-      </c>
-      <c r="V31" s="3">
-        <v>65</v>
-      </c>
       <c r="W31" s="3">
         <v>0</v>
       </c>
@@ -5258,25 +5268,25 @@
         <v>0</v>
       </c>
       <c r="AA31" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="AB31" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC31" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD31" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="AE31" s="3">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AF31" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG31" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -5288,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AL31" s="3">
         <v>-1</v>
@@ -5297,42 +5307,43 @@
         <v>0</v>
       </c>
       <c r="AN31" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="AO31" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="AP31" s="3"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:42">
       <c r="A32" s="3">
-        <v>617</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3">
-        <v>610</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>6350</v>
+        <v>500</v>
       </c>
       <c r="I32" s="3">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="J32" s="3">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -5353,68 +5364,68 @@
         <v>-1</v>
       </c>
       <c r="Q32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" s="3">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="S32" s="3">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="T32" s="3">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U32" s="3">
+        <v>35</v>
+      </c>
+      <c r="V32" s="3">
+        <v>35</v>
+      </c>
+      <c r="W32" s="3">
+        <v>74</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>56</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>12</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
         <v>60</v>
       </c>
-      <c r="V32" s="3">
-        <v>65</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>50</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>50</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>20</v>
-      </c>
-      <c r="AG32" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="3">
-        <v>40</v>
-      </c>
       <c r="AL32" s="3">
         <v>-1</v>
       </c>
@@ -5422,42 +5433,45 @@
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="AO32" s="7" t="s">
         <v>78</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="3">
-        <v>618</v>
+        <v>140</v>
       </c>
       <c r="B33" s="3">
-        <v>610</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
-        <v>6350</v>
+        <v>15</v>
       </c>
       <c r="I33" s="3">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="J33" s="3">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -5481,19 +5495,19 @@
         <v>1</v>
       </c>
       <c r="R33" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="S33" s="3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="T33" s="3">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="U33" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="V33" s="3">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
@@ -5517,10 +5531,10 @@
         <v>10</v>
       </c>
       <c r="AD33" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AE33" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AF33" s="3">
         <v>20</v>
@@ -5538,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL33" s="3">
         <v>-1</v>
@@ -5547,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="AO33" s="7" t="s">
         <v>78</v>
@@ -5555,34 +5569,34 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="3">
-        <v>619</v>
+        <v>141</v>
       </c>
       <c r="B34" s="3">
-        <v>610</v>
+        <v>142</v>
       </c>
       <c r="C34" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
-        <v>6350</v>
+        <v>15</v>
       </c>
       <c r="I34" s="3">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="J34" s="3">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -5606,19 +5620,19 @@
         <v>1</v>
       </c>
       <c r="R34" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="S34" s="3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="T34" s="3">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="U34" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="V34" s="3">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="W34" s="3">
         <v>0</v>
@@ -5642,10 +5656,10 @@
         <v>10</v>
       </c>
       <c r="AD34" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AE34" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AF34" s="3">
         <v>20</v>
@@ -5663,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL34" s="3">
         <v>-1</v>
@@ -5672,42 +5686,42 @@
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO34" s="7" t="s">
-        <v>78</v>
+        <v>139</v>
+      </c>
+      <c r="AO34" s="7">
+        <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:41">
       <c r="A35" s="3">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="B35" s="3">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C35" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>10</v>
       </c>
       <c r="H35" s="3">
-        <v>2250</v>
+        <v>15</v>
       </c>
       <c r="I35" s="3">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="J35" s="3">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -5728,68 +5742,68 @@
         <v>-1</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="3">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="S35" s="3">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="T35" s="3">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="U35" s="3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="V35" s="3">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
         <v>60</v>
       </c>
-      <c r="Z35" s="3">
-        <v>50</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>56</v>
-      </c>
-      <c r="AE35" s="3">
-        <v>46</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>50</v>
-      </c>
-      <c r="AG35" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>65</v>
-      </c>
-      <c r="AI35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>80</v>
-      </c>
       <c r="AL35" s="3">
         <v>-1</v>
       </c>
@@ -5797,30 +5811,27 @@
         <v>0</v>
       </c>
       <c r="AN35" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP35" s="3">
-        <v>714</v>
+        <v>140</v>
+      </c>
+      <c r="AO35" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="3">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="B36" s="3">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C36" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -5829,13 +5840,13 @@
         <v>10</v>
       </c>
       <c r="H36" s="3">
-        <v>2250</v>
+        <v>15</v>
       </c>
       <c r="I36" s="3">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="J36" s="3">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -5856,22 +5867,22 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="3">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="S36" s="3">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="T36" s="3">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="U36" s="3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="V36" s="3">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="W36" s="3">
         <v>0</v>
@@ -5880,44 +5891,44 @@
         <v>0</v>
       </c>
       <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
         <v>60</v>
       </c>
-      <c r="Z36" s="3">
-        <v>50</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>56</v>
-      </c>
-      <c r="AE36" s="3">
-        <v>46</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG36" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>65</v>
-      </c>
-      <c r="AI36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>50</v>
-      </c>
       <c r="AL36" s="3">
         <v>-1</v>
       </c>
@@ -5925,27 +5936,27 @@
         <v>0</v>
       </c>
       <c r="AN36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO36" s="7" t="s">
-        <v>78</v>
+        <v>140</v>
+      </c>
+      <c r="AO36" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="3">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="B37" s="3">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -5954,13 +5965,13 @@
         <v>10</v>
       </c>
       <c r="H37" s="3">
-        <v>2250</v>
+        <v>15</v>
       </c>
       <c r="I37" s="3">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="J37" s="3">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -5981,22 +5992,22 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="3">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="S37" s="3">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="T37" s="3">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="U37" s="3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="V37" s="3">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="W37" s="3">
         <v>0</v>
@@ -6005,44 +6016,44 @@
         <v>0</v>
       </c>
       <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="3">
         <v>60</v>
       </c>
-      <c r="Z37" s="3">
-        <v>50</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>56</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>46</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>65</v>
-      </c>
-      <c r="AI37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>50</v>
-      </c>
       <c r="AL37" s="3">
         <v>-1</v>
       </c>
@@ -6050,42 +6061,42 @@
         <v>0</v>
       </c>
       <c r="AN37" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO37" s="7" t="s">
-        <v>78</v>
+        <v>139</v>
+      </c>
+      <c r="AO37" s="7">
+        <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:41">
       <c r="A38" s="3">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="B38" s="3">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H38" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I38" s="3">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="J38" s="3">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
@@ -6106,22 +6117,22 @@
         <v>-1</v>
       </c>
       <c r="Q38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" s="3">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="S38" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="U38" s="3">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="V38" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="W38" s="3">
         <v>0</v>
@@ -6136,120 +6147,117 @@
         <v>0</v>
       </c>
       <c r="AA38" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB38" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AC38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO38" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" s="3">
+        <v>146</v>
+      </c>
+      <c r="B39" s="3">
+        <v>147</v>
+      </c>
+      <c r="C39" s="3">
         <v>6</v>
       </c>
-      <c r="AD38" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE38" s="3">
-        <v>21</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG38" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="3">
+      <c r="D39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3">
+        <v>15</v>
+      </c>
+      <c r="J39" s="3">
+        <v>15</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
         <v>90</v>
       </c>
-      <c r="AL38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP38" s="3">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42">
-      <c r="A39" s="3">
-        <v>90</v>
-      </c>
-      <c r="B39" s="3">
-        <v>90</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="3">
-        <v>2</v>
-      </c>
-      <c r="H39" s="3">
-        <v>50</v>
-      </c>
-      <c r="I39" s="3">
-        <v>38</v>
-      </c>
-      <c r="J39" s="3">
-        <v>38</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>100</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0</v>
-      </c>
       <c r="R39" s="3">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="S39" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="T39" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="U39" s="3">
         <v>30</v>
       </c>
       <c r="V39" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W39" s="3">
         <v>0</v>
@@ -6264,22 +6272,22 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AB39" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AC39" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD39" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE39" s="3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AF39" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG39" s="3">
         <v>50</v>
@@ -6303,45 +6311,42 @@
         <v>0</v>
       </c>
       <c r="AN39" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO39" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP39" s="3">
-        <v>96</v>
+        <v>138</v>
+      </c>
+      <c r="AO39" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="3">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="B40" s="3">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C40" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
-        <v>9250</v>
+        <v>15</v>
       </c>
       <c r="I40" s="3">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="J40" s="3">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -6365,19 +6370,19 @@
         <v>1</v>
       </c>
       <c r="R40" s="3">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="S40" s="3">
-        <v>590</v>
+        <v>10</v>
       </c>
       <c r="T40" s="3">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="U40" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="V40" s="3">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="W40" s="3">
         <v>0</v>
@@ -6392,25 +6397,25 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="AB40" s="3">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="AC40" s="3">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AD40" s="3">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AE40" s="3">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="AF40" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG40" s="3">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AH40" s="3">
         <v>0</v>
@@ -6431,42 +6436,42 @@
         <v>0</v>
       </c>
       <c r="AN40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO40" s="7" t="s">
-        <v>78</v>
+        <v>138</v>
+      </c>
+      <c r="AO40" s="7">
+        <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:41">
       <c r="A41" s="3">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C41" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="I41" s="3">
-        <v>482</v>
+        <v>15</v>
       </c>
       <c r="J41" s="3">
-        <v>482</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -6490,19 +6495,19 @@
         <v>1</v>
       </c>
       <c r="R41" s="3">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="S41" s="3">
-        <v>486</v>
+        <v>10</v>
       </c>
       <c r="T41" s="3">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="U41" s="3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="V41" s="3">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -6517,82 +6522,81 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="AB41" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO41" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="A42" s="3">
+        <v>149</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1410</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
         <v>15</v>
       </c>
-      <c r="AD41" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>17</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>50</v>
-      </c>
-      <c r="AG41" s="3">
-        <v>38</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="3">
-        <v>61</v>
-      </c>
-      <c r="AL41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP41" s="3"/>
-    </row>
-    <row r="42" spans="1:42">
-      <c r="A42" s="3">
-        <v>123</v>
-      </c>
-      <c r="B42" s="3">
-        <v>123</v>
-      </c>
-      <c r="C42" s="3">
-        <v>7</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>500</v>
-      </c>
       <c r="I42" s="3">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="J42" s="3">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -6613,52 +6617,52 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" s="3">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="S42" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T42" s="3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U42" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V42" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W42" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
       <c r="Y42" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
       </c>
       <c r="AA42" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AB42" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC42" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD42" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE42" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF42" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG42" s="3">
         <v>50</v>
@@ -6682,30 +6686,27 @@
         <v>0</v>
       </c>
       <c r="AN42" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO42" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP42" s="3">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="AO42" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="3">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B43" s="3">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C43" s="3">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -6714,13 +6715,13 @@
         <v>10</v>
       </c>
       <c r="H43" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I43" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -6750,13 +6751,13 @@
         <v>10</v>
       </c>
       <c r="T43" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="U43" s="3">
         <v>30</v>
       </c>
       <c r="V43" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -6786,7 +6787,7 @@
         <v>10</v>
       </c>
       <c r="AF43" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG43" s="3">
         <v>50</v>
@@ -6810,27 +6811,27 @@
         <v>0</v>
       </c>
       <c r="AN43" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO43" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
+      </c>
+      <c r="AO43" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="3">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B44" s="3">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -6839,13 +6840,13 @@
         <v>10</v>
       </c>
       <c r="H44" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I44" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -6875,13 +6876,13 @@
         <v>10</v>
       </c>
       <c r="T44" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="U44" s="3">
         <v>30</v>
       </c>
       <c r="V44" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -6911,7 +6912,7 @@
         <v>10</v>
       </c>
       <c r="AF44" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG44" s="3">
         <v>50</v>
@@ -6935,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AO44" s="7">
         <v>-1</v>
@@ -6943,19 +6944,19 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="3">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B45" s="3">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C45" s="3">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -6964,13 +6965,13 @@
         <v>10</v>
       </c>
       <c r="H45" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I45" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -7000,13 +7001,13 @@
         <v>10</v>
       </c>
       <c r="T45" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="U45" s="3">
         <v>30</v>
       </c>
       <c r="V45" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -7036,7 +7037,7 @@
         <v>10</v>
       </c>
       <c r="AF45" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG45" s="3">
         <v>50</v>
@@ -7060,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO45" s="7">
         <v>-1</v>
@@ -7068,19 +7069,19 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="3">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B46" s="3">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -7089,13 +7090,13 @@
         <v>10</v>
       </c>
       <c r="H46" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I46" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -7125,13 +7126,13 @@
         <v>10</v>
       </c>
       <c r="T46" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="U46" s="3">
         <v>30</v>
       </c>
       <c r="V46" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -7161,7 +7162,7 @@
         <v>10</v>
       </c>
       <c r="AF46" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG46" s="3">
         <v>50</v>
@@ -7185,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AO46" s="7">
         <v>-1</v>
@@ -7193,19 +7194,19 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="3">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B47" s="3">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -7214,13 +7215,13 @@
         <v>10</v>
       </c>
       <c r="H47" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I47" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -7250,13 +7251,13 @@
         <v>10</v>
       </c>
       <c r="T47" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="U47" s="3">
         <v>30</v>
       </c>
       <c r="V47" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -7286,7 +7287,7 @@
         <v>10</v>
       </c>
       <c r="AF47" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG47" s="3">
         <v>50</v>
@@ -7310,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AO47" s="7">
         <v>-1</v>
@@ -7318,34 +7319,34 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="3">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B48" s="3">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C48" s="3">
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H48" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I48" s="3">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -7375,13 +7376,13 @@
         <v>10</v>
       </c>
       <c r="T48" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="U48" s="3">
         <v>30</v>
       </c>
       <c r="V48" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -7411,7 +7412,7 @@
         <v>10</v>
       </c>
       <c r="AF48" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AG48" s="3">
         <v>50</v>
@@ -7435,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="AN48" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AO48" s="7">
         <v>-1</v>
@@ -7443,19 +7444,19 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="3">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B49" s="3">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="C49" s="3">
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -7464,13 +7465,13 @@
         <v>10</v>
       </c>
       <c r="H49" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I49" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -7491,7 +7492,7 @@
         <v>-1</v>
       </c>
       <c r="Q49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>150</v>
@@ -7500,7 +7501,7 @@
         <v>10</v>
       </c>
       <c r="T49" s="3">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="U49" s="3">
         <v>30</v>
@@ -7536,13 +7537,13 @@
         <v>10</v>
       </c>
       <c r="AF49" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG49" s="3">
         <v>50</v>
       </c>
       <c r="AH49" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI49" s="3">
         <v>0</v>
@@ -7560,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AO49" s="7">
         <v>-1</v>
@@ -7568,19 +7569,19 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="3">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B50" s="3">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C50" s="3">
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -7589,13 +7590,13 @@
         <v>10</v>
       </c>
       <c r="H50" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I50" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J50" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -7616,7 +7617,7 @@
         <v>-1</v>
       </c>
       <c r="Q50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="3">
         <v>150</v>
@@ -7625,7 +7626,7 @@
         <v>10</v>
       </c>
       <c r="T50" s="3">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="U50" s="3">
         <v>30</v>
@@ -7661,13 +7662,13 @@
         <v>10</v>
       </c>
       <c r="AF50" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG50" s="3">
         <v>50</v>
       </c>
       <c r="AH50" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI50" s="3">
         <v>0</v>
@@ -7685,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AO50" s="7">
         <v>-1</v>
@@ -7693,19 +7694,19 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="3">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B51" s="3">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C51" s="3">
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -7714,13 +7715,13 @@
         <v>10</v>
       </c>
       <c r="H51" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I51" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J51" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
@@ -7741,7 +7742,7 @@
         <v>-1</v>
       </c>
       <c r="Q51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="3">
         <v>150</v>
@@ -7750,7 +7751,7 @@
         <v>10</v>
       </c>
       <c r="T51" s="3">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="U51" s="3">
         <v>30</v>
@@ -7786,13 +7787,13 @@
         <v>10</v>
       </c>
       <c r="AF51" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG51" s="3">
         <v>50</v>
       </c>
       <c r="AH51" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI51" s="3">
         <v>0</v>
@@ -7810,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AO51" s="7">
         <v>-1</v>
@@ -7818,19 +7819,19 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="3">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B52" s="3">
-        <v>1410</v>
+        <v>181</v>
       </c>
       <c r="C52" s="3">
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -7839,13 +7840,13 @@
         <v>10</v>
       </c>
       <c r="H52" s="3">
-        <v>15</v>
+        <v>2250</v>
       </c>
       <c r="I52" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -7866,7 +7867,7 @@
         <v>-1</v>
       </c>
       <c r="Q52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>150</v>
@@ -7875,7 +7876,7 @@
         <v>10</v>
       </c>
       <c r="T52" s="3">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="U52" s="3">
         <v>30</v>
@@ -7911,13 +7912,13 @@
         <v>10</v>
       </c>
       <c r="AF52" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG52" s="3">
         <v>50</v>
       </c>
       <c r="AH52" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI52" s="3">
         <v>0</v>
@@ -7935,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AO52" s="7">
         <v>-1</v>
@@ -7943,19 +7944,19 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="3">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B53" s="3">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3">
         <v>6</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -7991,7 +7992,7 @@
         <v>-1</v>
       </c>
       <c r="Q53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="3">
         <v>150</v>
@@ -8000,13 +8001,13 @@
         <v>10</v>
       </c>
       <c r="T53" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="U53" s="3">
         <v>30</v>
       </c>
       <c r="V53" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W53" s="3">
         <v>0</v>
@@ -8036,13 +8037,13 @@
         <v>10</v>
       </c>
       <c r="AF53" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG53" s="3">
         <v>50</v>
       </c>
       <c r="AH53" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI53" s="3">
         <v>0</v>
@@ -8060,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AO53" s="7">
         <v>-1</v>
@@ -8068,34 +8069,34 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="3">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B54" s="3">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C54" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H54" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -8119,108 +8120,108 @@
         <v>1</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>77</v>
+      </c>
+      <c r="U54" s="3">
+        <v>60</v>
+      </c>
+      <c r="V54" s="3">
+        <v>65</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>50</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="3">
+        <v>40</v>
+      </c>
+      <c r="AL54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="S54" s="3">
-        <v>10</v>
-      </c>
-      <c r="T54" s="3">
-        <v>30</v>
-      </c>
-      <c r="U54" s="3">
-        <v>30</v>
-      </c>
-      <c r="V54" s="3">
-        <v>90</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE54" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF54" s="3">
-        <v>50</v>
-      </c>
-      <c r="AG54" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="3">
-        <v>60</v>
-      </c>
-      <c r="AL54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO54" s="7">
-        <v>-1</v>
+      <c r="AO54" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="3">
-        <v>162</v>
+        <v>610</v>
       </c>
       <c r="B55" s="3">
-        <v>165</v>
+        <v>610</v>
       </c>
       <c r="C55" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H55" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I55" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J55" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -8244,19 +8245,19 @@
         <v>1</v>
       </c>
       <c r="R55" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S55" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T55" s="3">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="U55" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V55" s="3">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="W55" s="3">
         <v>0</v>
@@ -8280,13 +8281,13 @@
         <v>10</v>
       </c>
       <c r="AD55" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE55" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF55" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AG55" s="3">
         <v>50</v>
@@ -8301,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL55" s="3">
         <v>-1</v>
@@ -8310,42 +8311,42 @@
         <v>0</v>
       </c>
       <c r="AN55" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO55" s="7">
-        <v>-1</v>
+        <v>115</v>
+      </c>
+      <c r="AO55" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="3">
-        <v>163</v>
+        <v>611</v>
       </c>
       <c r="B56" s="3">
-        <v>166</v>
+        <v>610</v>
       </c>
       <c r="C56" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H56" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I56" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J56" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -8369,19 +8370,19 @@
         <v>1</v>
       </c>
       <c r="R56" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S56" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T56" s="3">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="U56" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V56" s="3">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="W56" s="3">
         <v>0</v>
@@ -8405,13 +8406,13 @@
         <v>10</v>
       </c>
       <c r="AD56" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE56" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF56" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AG56" s="3">
         <v>50</v>
@@ -8426,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL56" s="3">
         <v>-1</v>
@@ -8435,42 +8436,42 @@
         <v>0</v>
       </c>
       <c r="AN56" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO56" s="7">
-        <v>-1</v>
+        <v>115</v>
+      </c>
+      <c r="AO56" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="3">
-        <v>164</v>
+        <v>612</v>
       </c>
       <c r="B57" s="3">
-        <v>167</v>
+        <v>610</v>
       </c>
       <c r="C57" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H57" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -8494,19 +8495,19 @@
         <v>1</v>
       </c>
       <c r="R57" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="U57" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V57" s="3">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -8530,13 +8531,13 @@
         <v>10</v>
       </c>
       <c r="AD57" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE57" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF57" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AG57" s="3">
         <v>50</v>
@@ -8551,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL57" s="3">
         <v>-1</v>
@@ -8560,42 +8561,42 @@
         <v>0</v>
       </c>
       <c r="AN57" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO57" s="7">
-        <v>-1</v>
+        <v>115</v>
+      </c>
+      <c r="AO57" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="3">
-        <v>165</v>
+        <v>613</v>
       </c>
       <c r="B58" s="3">
-        <v>168</v>
+        <v>610</v>
       </c>
       <c r="C58" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H58" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -8619,19 +8620,19 @@
         <v>1</v>
       </c>
       <c r="R58" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="U58" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V58" s="3">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -8655,13 +8656,13 @@
         <v>10</v>
       </c>
       <c r="AD58" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE58" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF58" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AG58" s="3">
         <v>50</v>
@@ -8676,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL58" s="3">
         <v>-1</v>
@@ -8685,42 +8686,42 @@
         <v>0</v>
       </c>
       <c r="AN58" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO58" s="7">
-        <v>-1</v>
+        <v>115</v>
+      </c>
+      <c r="AO58" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="3">
-        <v>180</v>
+        <v>614</v>
       </c>
       <c r="B59" s="3">
-        <v>181</v>
+        <v>610</v>
       </c>
       <c r="C59" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H59" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -8741,22 +8742,22 @@
         <v>-1</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U59" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V59" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -8780,19 +8781,19 @@
         <v>10</v>
       </c>
       <c r="AD59" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE59" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF59" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AG59" s="3">
         <v>50</v>
       </c>
       <c r="AH59" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="3">
         <v>0</v>
@@ -8801,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL59" s="3">
         <v>-1</v>
@@ -8810,42 +8811,42 @@
         <v>0</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO59" s="7">
-        <v>-1</v>
+        <v>115</v>
+      </c>
+      <c r="AO59" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="3">
-        <v>181</v>
+        <v>615</v>
       </c>
       <c r="B60" s="3">
-        <v>182</v>
+        <v>610</v>
       </c>
       <c r="C60" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H60" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -8866,22 +8867,22 @@
         <v>-1</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U60" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V60" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -8905,19 +8906,19 @@
         <v>10</v>
       </c>
       <c r="AD60" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE60" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF60" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG60" s="3">
         <v>50</v>
       </c>
       <c r="AH60" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="3">
         <v>0</v>
@@ -8926,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL60" s="3">
         <v>-1</v>
@@ -8935,42 +8936,42 @@
         <v>0</v>
       </c>
       <c r="AN60" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO60" s="7">
-        <v>-1</v>
+        <v>116</v>
+      </c>
+      <c r="AO60" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="3">
-        <v>182</v>
+        <v>616</v>
       </c>
       <c r="B61" s="3">
-        <v>181</v>
+        <v>610</v>
       </c>
       <c r="C61" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H61" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -8991,22 +8992,22 @@
         <v>-1</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S61" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T61" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U61" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V61" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -9030,19 +9031,19 @@
         <v>10</v>
       </c>
       <c r="AD61" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE61" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF61" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG61" s="3">
         <v>50</v>
       </c>
       <c r="AH61" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="3">
         <v>0</v>
@@ -9051,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL61" s="3">
         <v>-1</v>
@@ -9060,42 +9061,42 @@
         <v>0</v>
       </c>
       <c r="AN61" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO61" s="7">
-        <v>-1</v>
+        <v>116</v>
+      </c>
+      <c r="AO61" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="3">
-        <v>183</v>
+        <v>617</v>
       </c>
       <c r="B62" s="3">
-        <v>181</v>
+        <v>610</v>
       </c>
       <c r="C62" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H62" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -9116,22 +9117,22 @@
         <v>-1</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S62" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T62" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U62" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V62" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -9155,19 +9156,19 @@
         <v>10</v>
       </c>
       <c r="AD62" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE62" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF62" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG62" s="3">
         <v>50</v>
       </c>
       <c r="AH62" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="3">
         <v>0</v>
@@ -9176,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL62" s="3">
         <v>-1</v>
@@ -9185,42 +9186,42 @@
         <v>0</v>
       </c>
       <c r="AN62" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO62" s="7">
-        <v>-1</v>
+        <v>116</v>
+      </c>
+      <c r="AO62" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="3">
-        <v>184</v>
+        <v>618</v>
       </c>
       <c r="B63" s="3">
-        <v>182</v>
+        <v>610</v>
       </c>
       <c r="C63" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H63" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I63" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J63" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
@@ -9241,22 +9242,22 @@
         <v>-1</v>
       </c>
       <c r="Q63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="S63" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T63" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U63" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V63" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W63" s="3">
         <v>0</v>
@@ -9280,19 +9281,19 @@
         <v>10</v>
       </c>
       <c r="AD63" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE63" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF63" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG63" s="3">
         <v>50</v>
       </c>
       <c r="AH63" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="3">
         <v>0</v>
@@ -9301,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL63" s="3">
         <v>-1</v>
@@ -9310,27 +9311,27 @@
         <v>0</v>
       </c>
       <c r="AN63" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO63" s="7">
-        <v>-1</v>
+        <v>116</v>
+      </c>
+      <c r="AO63" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="3">
-        <v>190</v>
+        <v>619</v>
       </c>
       <c r="B64" s="3">
-        <v>190</v>
+        <v>610</v>
       </c>
       <c r="C64" s="3">
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -9342,10 +9343,10 @@
         <v>6350</v>
       </c>
       <c r="I64" s="3">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="J64" s="3">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -9411,7 +9412,7 @@
         <v>50</v>
       </c>
       <c r="AF64" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG64" s="3">
         <v>50</v>
@@ -9435,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="7" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="AO64" s="7" t="s">
         <v>78</v>
